--- a/StructureDefinition-ext-R5-MedicationAdministration.performer.xlsx
+++ b/StructureDefinition-ext-R5-MedicationAdministration.performer.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="173">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -407,15 +407,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A code describing the role an individual played in administering the medication.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-med-admin-perform-function-for-R4</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -508,8 +499,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:actor.extension:concept.id</t>
@@ -536,8 +526,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:actor.extension:reference.id</t>
@@ -552,7 +541,7 @@
     <t>Extension.extension:actor.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device)
 </t>
   </si>
   <si>
@@ -916,8 +905,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.7578125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1833,43 +1822,43 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>120</v>
@@ -1877,13 +1866,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1908,14 +1897,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1984,7 +1973,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2087,7 +2076,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2190,13 +2179,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
@@ -2221,10 +2210,10 @@
         <v>93</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2295,10 +2284,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2398,10 +2387,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2503,10 +2492,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2546,7 +2535,7 @@
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>77</v>
@@ -2608,10 +2597,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2637,13 +2626,13 @@
         <v>87</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2651,7 +2640,7 @@
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>77</v>
@@ -2693,7 +2682,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -2705,7 +2694,7 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>120</v>
@@ -2713,13 +2702,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -2744,14 +2733,14 @@
         <v>93</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -2820,10 +2809,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2923,10 +2912,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3028,10 +3017,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3071,7 +3060,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3133,10 +3122,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3162,10 +3151,10 @@
         <v>123</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3216,7 +3205,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3228,7 +3217,7 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>120</v>
@@ -3236,13 +3225,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3267,14 +3256,14 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3343,10 +3332,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3446,10 +3435,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3551,10 +3540,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3594,7 +3583,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3656,10 +3645,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3682,13 +3671,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3739,7 +3728,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -3751,7 +3740,7 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>120</v>
@@ -3759,7 +3748,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -3802,7 +3791,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3864,7 +3853,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>122</v>
@@ -3890,13 +3879,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3947,7 +3936,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -3959,7 +3948,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>120</v>
@@ -4072,10 +4061,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4098,13 +4087,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4155,7 +4144,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4167,7 +4156,7 @@
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>120</v>
